--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1936441.027816394</v>
+        <v>2032544.961051117</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6970360.774383793</v>
+        <v>6663746.095359933</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1116356.600945273</v>
+        <v>806345.8827095095</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10055489.70412553</v>
+        <v>10168307.88445737</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>414.0711398554625</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481174</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>108.9701216524063</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>339.7690039388615</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231965</v>
+        <v>136.6845543210566</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>105.8712504714823</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250752</v>
+        <v>66.70865780356731</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229333</v>
+        <v>59.24433418100833</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984489</v>
+        <v>15.20174324431709</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8980292624121</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -820,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -835,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>9.275596830496628</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853702</v>
+        <v>54.30080173848779</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,22 +861,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>106.8008304699822</v>
       </c>
     </row>
     <row r="5">
@@ -899,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>359.3908175694769</v>
+        <v>22.18920858496576</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,7 +992,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I6" t="n">
         <v>61.42221998250818</v>
@@ -1060,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>8.885767957897624</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1114,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>59.71215406761458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>374.4505998327974</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>96.95377689311815</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,10 +1296,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1306,7 +1308,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>84.4782274336056</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>14.46389722690833</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>189.286729127828</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1531,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>59.90320919298897</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471485</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1625,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,13 +1660,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>321.0253988324067</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1701,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>147.4291364622107</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>131.2190706084954</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1822,16 +1824,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,10 +1897,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9951719589025</v>
+        <v>250.9951719589019</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1938,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2008,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>112.3514341322534</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>110.2398088806205</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2065,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492261</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2299,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>270.3808622796243</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2476,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>91.74627564471591</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -2494,7 +2496,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>13.02719212039564</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2573,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>28.87187436015466</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>80.50796942908519</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2953,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2962,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>71.25306209681695</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>104.2590660175749</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3184,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>58.40943379163082</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>77.31354443380407</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3238,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3317,10 +3319,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3427,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>77.31354443380407</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>147.4042139477537</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3597,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>52.23490948285998</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>104.2590660175756</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3755,10 +3757,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>55.91175464721355</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>163.6898441249706</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>118.9444939169143</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3955,16 +3957,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3986,16 +3988,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G44" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,7 +4033,7 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
-        <v>197.7191648179396</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4192,16 +4194,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>151.7822816698223</v>
       </c>
       <c r="Y46" t="n">
-        <v>48.31468638489454</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1749.341643278937</v>
+        <v>1245.511124565398</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>876.5486076249866</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>876.5486076249866</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>876.5486076249866</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>465.5627028353791</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>47.3090262136998</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>47.3090262136998</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>47.3090262136998</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>138.9642385015914</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>397.0764468060713</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224072</v>
+        <v>769.56409259272</v>
       </c>
       <c r="M2" t="n">
-        <v>1362.238747280443</v>
+        <v>1200.634914689014</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1624.048915811682</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642689</v>
+        <v>1978.679112633674</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2243.673398054134</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2365.45131068499</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2365.45131068499</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862885</v>
+        <v>2365.45131068499</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862885</v>
+        <v>2365.45131068499</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2365.45131068499</v>
       </c>
       <c r="V2" t="n">
-        <v>2102.110298549051</v>
+        <v>2365.45131068499</v>
       </c>
       <c r="W2" t="n">
-        <v>1749.341643278937</v>
+        <v>2022.250296605332</v>
       </c>
       <c r="X2" t="n">
-        <v>1749.341643278937</v>
+        <v>2022.250296605332</v>
       </c>
       <c r="Y2" t="n">
-        <v>1749.341643278937</v>
+        <v>1632.11096462952</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.8568241913216</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.4037949101946</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747043</v>
+        <v>665.4693852489434</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692488</v>
+        <v>506.2319302434878</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.6973722703728</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102423999</v>
+        <v>221.6321658854671</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673417</v>
+        <v>114.6915088435658</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>47.3090262136998</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204942</v>
+        <v>108.204863068301</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615927</v>
+        <v>338.9063907138129</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572644</v>
+        <v>710.5174612568458</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1196.149274459035</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517452</v>
+        <v>1710.341330101583</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537796</v>
+        <v>2114.310927191455</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2212.781883695911</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2365.45131068499</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2305.608548885992</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2305.608548885992</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2290.253252679611</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167582</v>
+        <v>2062.073425141821</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.921316910078</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.683960181876</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.832459976343</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1157.07216121139</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108.9687959810045</v>
+        <v>252.2749603113767</v>
       </c>
       <c r="C4" t="n">
-        <v>108.9687959810045</v>
+        <v>252.2749603113767</v>
       </c>
       <c r="D4" t="n">
-        <v>108.9687959810045</v>
+        <v>102.158320899041</v>
       </c>
       <c r="E4" t="n">
-        <v>108.9687959810045</v>
+        <v>102.158320899041</v>
       </c>
       <c r="F4" t="n">
-        <v>108.9687959810045</v>
+        <v>102.158320899041</v>
       </c>
       <c r="G4" t="n">
-        <v>108.9687959810045</v>
+        <v>102.158320899041</v>
       </c>
       <c r="H4" t="n">
-        <v>108.9687959810045</v>
+        <v>102.158320899041</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>102.158320899041</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>47.3090262136998</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>88.80529410181603</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>197.4326649365663</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658208</v>
+        <v>322.35411989506</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502498</v>
+        <v>449.7398382896744</v>
       </c>
       <c r="O4" t="n">
-        <v>649.26178935949</v>
+        <v>551.3848716885933</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064341</v>
+        <v>614.8390752546194</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.712065060056</v>
+        <v>614.8390752546194</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>614.8390752546194</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>614.8390752546194</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810045</v>
+        <v>614.8390752546194</v>
       </c>
       <c r="U4" t="n">
-        <v>108.9687959810045</v>
+        <v>614.8390752546194</v>
       </c>
       <c r="V4" t="n">
-        <v>108.9687959810045</v>
+        <v>360.1545870487325</v>
       </c>
       <c r="W4" t="n">
-        <v>108.9687959810045</v>
+        <v>360.1545870487325</v>
       </c>
       <c r="X4" t="n">
-        <v>108.9687959810045</v>
+        <v>360.1545870487325</v>
       </c>
       <c r="Y4" t="n">
-        <v>108.9687959810045</v>
+        <v>252.2749603113767</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1726.574418528649</v>
+        <v>1744.232431292459</v>
       </c>
       <c r="C5" t="n">
-        <v>1726.574418528649</v>
+        <v>1744.232431292459</v>
       </c>
       <c r="D5" t="n">
-        <v>1726.574418528649</v>
+        <v>1385.966732685709</v>
       </c>
       <c r="E5" t="n">
         <v>1363.553390680693</v>
@@ -4562,22 +4564,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862885</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862885</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862885</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592771</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X5" t="n">
-        <v>2113.174258592771</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="Y5" t="n">
-        <v>2113.174258592771</v>
+        <v>2130.832271356581</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.8329293182748</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>402.6523129118473</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942401</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942401</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942401</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="W7" t="n">
-        <v>261.1482364572794</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="X7" t="n">
-        <v>261.1482364572794</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="Y7" t="n">
-        <v>200.8329293182748</v>
+        <v>550.5654064942404</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>808.0839286340174</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="C8" t="n">
-        <v>439.1214116936057</v>
+        <v>1878.345729894537</v>
       </c>
       <c r="D8" t="n">
-        <v>439.1214116936057</v>
+        <v>1520.080031287786</v>
       </c>
       <c r="E8" t="n">
-        <v>439.1214116936057</v>
+        <v>1134.291778689542</v>
       </c>
       <c r="F8" t="n">
-        <v>432.1759109444022</v>
+        <v>723.3058738999346</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>305.3420657981214</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4829,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673951</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y8" t="n">
-        <v>1194.683768698139</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424003</v>
@@ -4887,16 +4889,16 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4920,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>500.820796875036</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="C10" t="n">
-        <v>500.820796875036</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D10" t="n">
-        <v>500.820796875036</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E10" t="n">
-        <v>500.820796875036</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F10" t="n">
-        <v>353.9308493771256</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>184.931049115458</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
         <v>99.59950625323012</v>
@@ -4981,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="U10" t="n">
-        <v>500.820796875036</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="V10" t="n">
-        <v>500.820796875036</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="W10" t="n">
-        <v>500.820796875036</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="X10" t="n">
-        <v>500.820796875036</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="Y10" t="n">
-        <v>500.820796875036</v>
+        <v>713.5189870075369</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2366.187894490605</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>1997.225377550193</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1638.959678943442</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1253.171426345198</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>842.1855215555906</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>427.1130714005871</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>129.5294710093543</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>87.53257224882302</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>443.8173522282015</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>1046.40159439571</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1497.435807644119</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2030.967712316043</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>2577.746529374825</v>
+        <v>3070.887536710053</v>
       </c>
       <c r="O11" t="n">
-        <v>3080.719000254162</v>
+        <v>3573.86000758939</v>
       </c>
       <c r="P11" t="n">
-        <v>3794.074087701108</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4252.552290210096</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
-        <v>4376.628612441151</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4266.337943968246</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4060.360196352468</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4060.360196352468</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3869.161480061733</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3516.392824791618</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3142.927066530538</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2752.787734554727</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>962.5643102977482</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>788.1112810166212</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>639.1768713553699</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>479.9394163499145</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>333.4048583767995</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>197.0417582094176</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>106.5398638472851</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>87.53257224882302</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>181.2098417394403</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>419.4740407197874</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L12" t="n">
-        <v>786.1722010324527</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
-        <v>1233.448526254768</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1706.971569809223</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2117.932849227278</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2428.43244070338</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2586.07399834998</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2585.929644942496</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2456.491758435976</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
-        <v>2263.848758113832</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2035.780911248247</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
-        <v>1800.628803016504</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1546.391446288303</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1338.53994608277</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1130.779647317816</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1112.634136258447</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="C13" t="n">
-        <v>943.6979533305403</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="D13" t="n">
-        <v>793.5813139182045</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="E13" t="n">
-        <v>645.6682203358114</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="F13" t="n">
-        <v>498.778272837901</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="G13" t="n">
-        <v>331.0754362126199</v>
+        <v>156.0693265625247</v>
       </c>
       <c r="H13" t="n">
-        <v>184.8582494304777</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>87.53257224882302</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>132.6552046957586</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>336.6423876446349</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>653.202186093131</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>997.3592316926799</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
-        <v>1338.767608398545</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1638.097207318958</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
-        <v>1870.704707752617</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1948.315003905132</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1948.315003905132</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1948.315003905132</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1948.315003905132</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U13" t="n">
-        <v>1948.315003905132</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V13" t="n">
-        <v>1948.315003905132</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W13" t="n">
-        <v>1743.064731130234</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X13" t="n">
-        <v>1515.075180232217</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y13" t="n">
-        <v>1294.282601088687</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2366.187894490605</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>1997.225377550193</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1638.959678943442</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1253.171426345198</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>842.1855215555906</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>427.1130714005871</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H14" t="n">
-        <v>129.5294710093543</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I14" t="n">
-        <v>87.53257224882302</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>443.8173522282015</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1046.40159439571</v>
+        <v>818.2062848686776</v>
       </c>
       <c r="L14" t="n">
-        <v>1497.435807644119</v>
+        <v>1682.725100522032</v>
       </c>
       <c r="M14" t="n">
-        <v>2030.967712316043</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N14" t="n">
-        <v>2577.746529374825</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O14" t="n">
-        <v>3080.719000254162</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>3794.074087701108</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4252.552290210096</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
-        <v>4376.628612441151</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4266.337943968246</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4060.360196352468</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>3806.829719626304</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3482.561639997611</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3129.792984727496</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>2756.327226466417</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2366.187894490605</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>962.5643102977482</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>788.1112810166212</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>639.1768713553699</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>479.9394163499145</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>333.4048583767995</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>197.0417582094176</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>106.5398638472851</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I15" t="n">
-        <v>87.53257224882302</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>181.2098417394403</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>419.4740407197874</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>786.1722010324527</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
-        <v>1233.448526254768</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1706.971569809223</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2117.932849227278</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2428.43244070338</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
-        <v>2586.07399834998</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2585.929644942496</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2456.491758435976</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
-        <v>2263.848758113832</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2035.780911248247</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
-        <v>1800.628803016504</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1546.391446288303</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1338.53994608277</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1130.779647317816</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>706.8327469805037</v>
+        <v>1100.64473518891</v>
       </c>
       <c r="C16" t="n">
-        <v>537.8965640525968</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D16" t="n">
-        <v>387.779924640261</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E16" t="n">
-        <v>255.2354088741041</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F16" t="n">
-        <v>255.2354088741041</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G16" t="n">
-        <v>87.53257224882302</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H16" t="n">
-        <v>87.53257224882302</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
-        <v>87.53257224882302</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>132.6552046957586</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>336.6423876446349</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>653.202186093131</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
-        <v>997.3592316926799</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
-        <v>1338.767608398545</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1638.097207318958</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
-        <v>1870.704707752617</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1948.315003905132</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1858.48454666266</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1666.798662489486</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T16" t="n">
-        <v>1445.032047059012</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U16" t="n">
-        <v>1445.032047059012</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="V16" t="n">
-        <v>1445.032047059012</v>
+        <v>1390.061905225871</v>
       </c>
       <c r="W16" t="n">
-        <v>1155.614877022051</v>
+        <v>1100.64473518891</v>
       </c>
       <c r="X16" t="n">
-        <v>927.6253261240338</v>
+        <v>1100.64473518891</v>
       </c>
       <c r="Y16" t="n">
-        <v>706.8327469805037</v>
+        <v>1100.64473518891</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
@@ -5513,25 +5515,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1971.087962216427</v>
+        <v>1772.421240554552</v>
       </c>
       <c r="M17" t="n">
-        <v>2504.619866888351</v>
+        <v>2750.97154338438</v>
       </c>
       <c r="N17" t="n">
-        <v>3051.398683947134</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O17" t="n">
-        <v>3931.363334276588</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P17" t="n">
-        <v>4326.137700633766</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
         <v>4653.975400188666</v>
@@ -5546,19 +5548,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5583,7 +5585,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5592,28 +5594,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>452.5901955154776</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="C19" t="n">
-        <v>452.5901955154776</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="D19" t="n">
-        <v>452.5901955154776</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="E19" t="n">
-        <v>452.5901955154776</v>
+        <v>471.9428905589872</v>
       </c>
       <c r="F19" t="n">
-        <v>452.5901955154776</v>
+        <v>471.9428905589872</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>304.2400539337061</v>
       </c>
       <c r="H19" t="n">
         <v>192.8867116300491</v>
@@ -5674,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5686,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1734.576850674229</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.789495593986</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W19" t="n">
-        <v>901.3723255570251</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X19" t="n">
-        <v>673.3827746590077</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="Y19" t="n">
-        <v>452.5901955154776</v>
+        <v>619.8559841413803</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5750,52 +5752,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>416.3606924710459</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K20" t="n">
-        <v>750.1800661608922</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L20" t="n">
-        <v>1614.698881814247</v>
+        <v>1339.447785386688</v>
       </c>
       <c r="M20" t="n">
-        <v>2593.249184644075</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N20" t="n">
-        <v>3573.001456870722</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750059</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.657581931529</v>
+        <v>4496.535381004075</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>4274.768765573601</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626699</v>
+        <v>3985.665898699244</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208122</v>
+        <v>3730.981410493358</v>
       </c>
       <c r="W22" t="n">
-        <v>725.9916293201816</v>
+        <v>3441.564240456397</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221642</v>
+        <v>3213.57468955838</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>2992.78211041485</v>
       </c>
     </row>
     <row r="23">
@@ -5963,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L23" t="n">
-        <v>1069.293752345675</v>
+        <v>1339.447785386688</v>
       </c>
       <c r="M23" t="n">
-        <v>2047.844055175503</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N23" t="n">
-        <v>3027.59632740215</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O23" t="n">
-        <v>3907.560977731604</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P23" t="n">
-        <v>4302.335344088782</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6020,19 +6022,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>747.3928343215987</v>
+        <v>1023.336921276364</v>
       </c>
       <c r="C25" t="n">
-        <v>654.7198286198654</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D25" t="n">
-        <v>654.7198286198654</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E25" t="n">
-        <v>506.8067350374723</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F25" t="n">
-        <v>506.8067350374723</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6178,19 +6180,19 @@
         <v>1956.343466104703</v>
       </c>
       <c r="U25" t="n">
-        <v>1667.240599230347</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="V25" t="n">
-        <v>1667.240599230347</v>
+        <v>1943.184686185112</v>
       </c>
       <c r="W25" t="n">
-        <v>1377.823429193386</v>
+        <v>1653.767516148151</v>
       </c>
       <c r="X25" t="n">
-        <v>1149.833878295369</v>
+        <v>1425.777965250134</v>
       </c>
       <c r="Y25" t="n">
-        <v>929.0412991518384</v>
+        <v>1204.985386106604</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551634</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G26" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074199</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972664</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
         <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O26" t="n">
         <v>4075.973927750059</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107238</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.03465586292</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6279,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089891</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320241</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6345,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6358,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>270.9417306852383</v>
+        <v>411.3871648742117</v>
       </c>
       <c r="C28" t="n">
-        <v>241.7782212305366</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D28" t="n">
-        <v>241.7782212305366</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E28" t="n">
-        <v>241.7782212305366</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6397,37 +6399,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1875.022284863203</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1875.022284863203</v>
       </c>
       <c r="T28" t="n">
-        <v>1734.57685067423</v>
+        <v>1875.022284863203</v>
       </c>
       <c r="U28" t="n">
-        <v>1445.473983799873</v>
+        <v>1585.919417988847</v>
       </c>
       <c r="V28" t="n">
-        <v>1190.789495593986</v>
+        <v>1331.23492978296</v>
       </c>
       <c r="W28" t="n">
-        <v>901.3723255570255</v>
+        <v>1041.817759745999</v>
       </c>
       <c r="X28" t="n">
-        <v>673.3827746590082</v>
+        <v>813.8282088479815</v>
       </c>
       <c r="Y28" t="n">
-        <v>452.5901955154781</v>
+        <v>593.0356297044514</v>
       </c>
     </row>
     <row r="29">
@@ -6455,34 +6457,34 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>416.3606924710459</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K29" t="n">
-        <v>750.1800661608922</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L29" t="n">
-        <v>1614.698881814247</v>
+        <v>1339.447785386688</v>
       </c>
       <c r="M29" t="n">
-        <v>2593.249184644075</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N29" t="n">
-        <v>3573.001456870722</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750059</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3531.125154183959</v>
+        <v>728.5987256350443</v>
       </c>
       <c r="C31" t="n">
-        <v>3362.188971256052</v>
+        <v>559.6625427071374</v>
       </c>
       <c r="D31" t="n">
-        <v>3212.072331843716</v>
+        <v>559.6625427071374</v>
       </c>
       <c r="E31" t="n">
-        <v>3064.159238261323</v>
+        <v>411.7494491247443</v>
       </c>
       <c r="F31" t="n">
-        <v>2917.269290763413</v>
+        <v>264.8595016268339</v>
       </c>
       <c r="G31" t="n">
-        <v>2917.269290763413</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H31" t="n">
-        <v>2917.269290763413</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>4778.051722419721</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>4778.051722419721</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T31" t="n">
-        <v>4556.285106989247</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="U31" t="n">
-        <v>4556.285106989247</v>
+        <v>1385.724257814701</v>
       </c>
       <c r="V31" t="n">
-        <v>4450.972919092706</v>
+        <v>1131.039769608814</v>
       </c>
       <c r="W31" t="n">
-        <v>4161.555749055746</v>
+        <v>1131.039769608814</v>
       </c>
       <c r="X31" t="n">
-        <v>3933.566198157729</v>
+        <v>1131.039769608814</v>
       </c>
       <c r="Y31" t="n">
-        <v>3712.773619014199</v>
+        <v>910.247190465284</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K32" t="n">
-        <v>750.1800661608922</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L32" t="n">
-        <v>1614.698881814247</v>
+        <v>1395.429061104435</v>
       </c>
       <c r="M32" t="n">
-        <v>2593.249184644075</v>
+        <v>2373.979363934263</v>
       </c>
       <c r="N32" t="n">
-        <v>3573.001456870722</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750059</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6731,19 +6733,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>452.5901955154776</v>
+        <v>3314.41660243073</v>
       </c>
       <c r="C34" t="n">
-        <v>393.5907674431232</v>
+        <v>3145.480419502823</v>
       </c>
       <c r="D34" t="n">
-        <v>243.4741280307875</v>
+        <v>2995.363780090488</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="J34" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442063</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N34" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518529</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P34" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104703</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104703</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104703</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="T34" t="n">
-        <v>1734.576850674229</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="U34" t="n">
-        <v>1445.473983799873</v>
+        <v>4488.948855545364</v>
       </c>
       <c r="V34" t="n">
-        <v>1190.789495593986</v>
+        <v>4234.264367339478</v>
       </c>
       <c r="W34" t="n">
-        <v>901.3723255570251</v>
+        <v>3944.847197302517</v>
       </c>
       <c r="X34" t="n">
-        <v>673.3827746590077</v>
+        <v>3716.8576464045</v>
       </c>
       <c r="Y34" t="n">
-        <v>452.5901955154776</v>
+        <v>3496.06506726097</v>
       </c>
     </row>
     <row r="35">
@@ -6914,49 +6916,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1339.447785386688</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.328657580449</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N35" t="n">
-        <v>3441.080929807095</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750059</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6968,19 +6970,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -7035,7 +7037,7 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>578.4172407837245</v>
+        <v>414.6138567886371</v>
       </c>
       <c r="C37" t="n">
-        <v>409.4810578558177</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D37" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
         <v>95.56103444839442</v>
@@ -7117,28 +7119,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S37" t="n">
-        <v>1674.827124689057</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T37" t="n">
-        <v>1453.060509258583</v>
+        <v>1878.248976777628</v>
       </c>
       <c r="U37" t="n">
-        <v>1453.060509258583</v>
+        <v>1589.146109903272</v>
       </c>
       <c r="V37" t="n">
-        <v>1198.376021052696</v>
+        <v>1334.461621697385</v>
       </c>
       <c r="W37" t="n">
-        <v>908.9588510157357</v>
+        <v>1045.044451660424</v>
       </c>
       <c r="X37" t="n">
-        <v>760.0657056139643</v>
+        <v>817.0549007624069</v>
       </c>
       <c r="Y37" t="n">
-        <v>760.0657056139643</v>
+        <v>596.2623216188767</v>
       </c>
     </row>
     <row r="38">
@@ -7157,43 +7159,43 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L38" t="n">
-        <v>1404.507041060941</v>
+        <v>1395.429061104434</v>
       </c>
       <c r="M38" t="n">
-        <v>2383.05734389077</v>
+        <v>2373.979363934262</v>
       </c>
       <c r="N38" t="n">
-        <v>3362.809616117416</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O38" t="n">
-        <v>3865.782086996753</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P38" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7227,34 +7229,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L39" t="n">
         <v>794.200663232024</v>
@@ -7263,16 +7265,16 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7293,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>709.4168978689405</v>
+        <v>391.866433243363</v>
       </c>
       <c r="C40" t="n">
-        <v>540.4807149410336</v>
+        <v>391.866433243363</v>
       </c>
       <c r="D40" t="n">
-        <v>390.3640755286979</v>
+        <v>391.866433243363</v>
       </c>
       <c r="E40" t="n">
-        <v>242.4509819463048</v>
+        <v>391.866433243363</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839442</v>
+        <v>391.866433243363</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7333,7 +7335,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7345,37 +7347,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T40" t="n">
-        <v>1734.576850674229</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U40" t="n">
-        <v>1734.576850674229</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V40" t="n">
-        <v>1629.264662777688</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W40" t="n">
-        <v>1339.847492740728</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X40" t="n">
-        <v>1111.85794184271</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y40" t="n">
-        <v>891.0653626991802</v>
+        <v>391.866433243363</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2083.083915184511</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>1714.121398244099</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1355.855699637349</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
-        <v>970.0674470391043</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>559.0815422494968</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G41" t="n">
-        <v>144.0090920944933</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>87.53257224882302</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>87.53257224882302</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>276.4117032078484</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K41" t="n">
-        <v>610.2310768976947</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L41" t="n">
-        <v>1061.265290146103</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M41" t="n">
-        <v>2039.815592975932</v>
+        <v>2215.249704195856</v>
       </c>
       <c r="N41" t="n">
-        <v>3019.567865202578</v>
+        <v>3195.001976422503</v>
       </c>
       <c r="O41" t="n">
-        <v>3522.540336081915</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P41" t="n">
-        <v>3917.314702439093</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4252.552290210096</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
-        <v>4376.628612441151</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4376.628612441151</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4170.650864825373</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>3917.120388099209</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3586.057500755639</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3233.288845485524</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>2859.823087224444</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2469.683755248633</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>962.5643102977482</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>788.1112810166212</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>639.1768713553699</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>479.9394163499145</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>333.4048583767995</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>197.0417582094176</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
-        <v>106.5398638472851</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>87.53257224882302</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>181.2098417394403</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
-        <v>419.4740407197874</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L42" t="n">
-        <v>786.1722010324527</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
-        <v>1233.448526254768</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1706.971569809223</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O42" t="n">
-        <v>2117.932849227278</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P42" t="n">
-        <v>2428.43244070338</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
-        <v>2586.07399834998</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R42" t="n">
-        <v>2585.929644942496</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>2456.491758435976</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>2263.848758113832</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2035.780911248247</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
-        <v>1800.628803016504</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>1546.391446288303</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1338.53994608277</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1130.779647317816</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2515.846180784842</v>
+        <v>825.859557377715</v>
       </c>
       <c r="C43" t="n">
-        <v>2515.846180784842</v>
+        <v>656.9233744498081</v>
       </c>
       <c r="D43" t="n">
-        <v>2515.846180784842</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E43" t="n">
-        <v>2515.846180784842</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F43" t="n">
-        <v>2515.846180784842</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G43" t="n">
-        <v>2515.846180784842</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H43" t="n">
-        <v>2515.846180784842</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I43" t="n">
-        <v>2515.846180784842</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>2560.968813231777</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>2764.955996180654</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L43" t="n">
-        <v>3081.51579462915</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M43" t="n">
-        <v>3425.672840228699</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N43" t="n">
-        <v>3767.081216934563</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>4066.410815854977</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P43" t="n">
-        <v>4299.018316288636</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>4376.628612441151</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R43" t="n">
-        <v>4376.628612441151</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S43" t="n">
-        <v>4184.942728267977</v>
+        <v>1746.367055410803</v>
       </c>
       <c r="T43" t="n">
-        <v>3963.176112837503</v>
+        <v>1524.600439980329</v>
       </c>
       <c r="U43" t="n">
-        <v>3674.073245963147</v>
+        <v>1235.497573105972</v>
       </c>
       <c r="V43" t="n">
-        <v>3419.38875775726</v>
+        <v>1235.497573105972</v>
       </c>
       <c r="W43" t="n">
-        <v>3129.971587720299</v>
+        <v>1235.497573105972</v>
       </c>
       <c r="X43" t="n">
-        <v>2901.982036822282</v>
+        <v>1007.508022207955</v>
       </c>
       <c r="Y43" t="n">
-        <v>2681.189457678752</v>
+        <v>1007.508022207955</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2026.60739533884</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>1657.644878398429</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1299.379179791678</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>913.590927193434</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>502.6050224038265</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>87.53257224882302</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
-        <v>87.53257224882302</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>87.53257224882302</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>276.4117032078484</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K44" t="n">
-        <v>610.2310768976947</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L44" t="n">
-        <v>1213.275771835677</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M44" t="n">
-        <v>2191.826074665505</v>
+        <v>2215.249704195856</v>
       </c>
       <c r="N44" t="n">
-        <v>3171.578346892152</v>
+        <v>3195.001976422503</v>
       </c>
       <c r="O44" t="n">
-        <v>3674.550817771489</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P44" t="n">
-        <v>4069.325184128666</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4317.611545884349</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
-        <v>4376.628612441151</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4266.337943968246</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4060.360196352468</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>3860.643868253539</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3529.580980909968</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3176.812325639854</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>2803.346567378774</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2413.207235402962</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>962.5643102977482</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>788.1112810166212</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>639.1768713553699</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>479.9394163499145</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>333.4048583767995</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>197.0417582094176</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H45" t="n">
-        <v>106.5398638472851</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>87.53257224882302</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>181.2098417394403</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K45" t="n">
-        <v>419.4740407197874</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L45" t="n">
-        <v>786.1722010324527</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
-        <v>1233.448526254768</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1706.971569809223</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2117.932849227278</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2428.43244070338</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2586.07399834998</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2585.929644942496</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2456.491758435976</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2263.848758113832</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2035.780911248247</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
-        <v>1800.628803016504</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1546.391446288303</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1338.53994608277</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1130.779647317816</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1015.308459076792</v>
+        <v>556.371005353728</v>
       </c>
       <c r="C46" t="n">
-        <v>846.3722761488855</v>
+        <v>556.371005353728</v>
       </c>
       <c r="D46" t="n">
-        <v>696.2556367365497</v>
+        <v>556.371005353728</v>
       </c>
       <c r="E46" t="n">
-        <v>548.3425431541566</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F46" t="n">
-        <v>401.4525956562463</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G46" t="n">
-        <v>233.7497590309652</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H46" t="n">
-        <v>87.53257224882302</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>87.53257224882302</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>132.6552046957586</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>336.6423876446349</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L46" t="n">
-        <v>653.202186093131</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>997.3592316926799</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>1338.767608398545</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1638.097207318958</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P46" t="n">
-        <v>1870.704707752617</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1948.315003905132</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R46" t="n">
-        <v>1948.315003905132</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S46" t="n">
-        <v>1756.629119731958</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T46" t="n">
-        <v>1534.862504301484</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1245.759637427127</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V46" t="n">
-        <v>1245.759637427127</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W46" t="n">
-        <v>1245.759637427127</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X46" t="n">
-        <v>1245.759637427127</v>
+        <v>556.371005353728</v>
       </c>
       <c r="Y46" t="n">
-        <v>1196.956923907032</v>
+        <v>556.371005353728</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516222</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8073,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>107.6070190727121</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516219</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8535,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8547,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8690,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>271.4796651289516</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8699,13 +8701,13 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>229.1543674071818</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>271.4796651289516</v>
+        <v>201.9664098701124</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9167,22 +9169,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>216.9877583263338</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>80.35488666587625</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9398,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>133.2530576400263</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>103.7862464855152</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9419,10 +9421,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9501,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>103.7862464855152</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9650,16 +9652,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>170.1140909277318</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9738,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9887,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400264</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9975,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>133.2530576400263</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>103.7862464855152</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10130,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10212,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>133.2530576400263</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>160.3329896347546</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10449,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>103.7862464855152</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10598,16 +10600,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>133.253057640027</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,22 +10822,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>338.5992815305718</v>
+        <v>160.3329896347531</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11072,13 +11074,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>103.7862464855158</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>87.82952122759659</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11160,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>153.545941100579</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11309,16 +11311,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>103.7862464855158</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23312,10 +23314,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>138.465529342307</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23419,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>84.8518057213318</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -23470,13 +23472,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944255</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23552,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>6.726859637728239</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23653,25 +23655,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>19.81768463641708</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>15.2148920380738</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,16 +23712,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23896,16 +23898,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>53.67437412677481</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>34.5152060337003</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>105.0742887270147</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>16.14213605696671</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>75.50054545391193</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,10 +24420,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>239.1104512034324</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>138.3749467384732</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>8.424183240962151</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>94.77274616221128</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>147.8785773062531</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>108.837387306997</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>69.1204182127651</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25126,7 +25128,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983812</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>142.2354048423651</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>78.30544144128342</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>113.7908987761682</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>147.8785773062524</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>238.6960097401069</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.14213605696673</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>70.82453141452763</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25880,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25919,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>53.27600714096238</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26020,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26080,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>73.92737371921481</v>
       </c>
       <c r="Y46" t="n">
-        <v>170.2699669672002</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>932957.1346399121</v>
+        <v>932181.8936380162</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>822763.4486401743</v>
+        <v>861640.6778858805</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>822763.4486401745</v>
+        <v>861640.6778858805</v>
       </c>
     </row>
     <row r="7">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>822763.4486401743</v>
+        <v>861640.6778858805</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>822763.4486401742</v>
+        <v>861640.6778858805</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="C2" t="n">
+        <v>574729.238904999</v>
+      </c>
+      <c r="D2" t="n">
         <v>574729.2389049988</v>
       </c>
-      <c r="D2" t="n">
-        <v>574729.238904999</v>
-      </c>
       <c r="E2" t="n">
-        <v>534213.7513652731</v>
+        <v>555914.5016417766</v>
       </c>
       <c r="F2" t="n">
-        <v>534213.7513652731</v>
+        <v>555914.5016417764</v>
       </c>
       <c r="G2" t="n">
-        <v>555914.5016417765</v>
+        <v>555914.5016417768</v>
       </c>
       <c r="H2" t="n">
         <v>555914.5016417765</v>
       </c>
       <c r="I2" t="n">
+        <v>555914.5016417762</v>
+      </c>
+      <c r="J2" t="n">
+        <v>555914.5016417763</v>
+      </c>
+      <c r="K2" t="n">
+        <v>555914.5016417763</v>
+      </c>
+      <c r="L2" t="n">
         <v>555914.5016417764</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
+        <v>555914.5016417763</v>
+      </c>
+      <c r="N2" t="n">
         <v>555914.5016417765</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
+        <v>555914.5016417763</v>
+      </c>
+      <c r="P2" t="n">
         <v>555914.5016417764</v>
-      </c>
-      <c r="L2" t="n">
-        <v>555914.5016417766</v>
-      </c>
-      <c r="M2" t="n">
-        <v>555914.5016417764</v>
-      </c>
-      <c r="N2" t="n">
-        <v>555914.5016417763</v>
-      </c>
-      <c r="O2" t="n">
-        <v>534213.751365273</v>
-      </c>
-      <c r="P2" t="n">
-        <v>534213.7513652729</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145443</v>
+        <v>493391.6844106477</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>91792.63957446939</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>697413.3866606111</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>27506.01327461912</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>154726.5356832159</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>21342.09858220084</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>104633.2536641699</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>209922.4154630334</v>
+        <v>235704.9591760457</v>
       </c>
       <c r="C4" t="n">
-        <v>209922.4154630334</v>
+        <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
         <v>209922.4154630333</v>
       </c>
       <c r="E4" t="n">
-        <v>22188.28974321246</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="F4" t="n">
-        <v>22188.28974321246</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="G4" t="n">
+        <v>28561.83935289575</v>
+      </c>
+      <c r="H4" t="n">
         <v>28561.83935289577</v>
       </c>
-      <c r="H4" t="n">
-        <v>28561.83935289578</v>
-      </c>
       <c r="I4" t="n">
-        <v>28561.83935289578</v>
+        <v>28561.83935289577</v>
       </c>
       <c r="J4" t="n">
+        <v>28561.83935289579</v>
+      </c>
+      <c r="K4" t="n">
         <v>28561.83935289577</v>
-      </c>
-      <c r="K4" t="n">
-        <v>28561.83935289578</v>
       </c>
       <c r="L4" t="n">
         <v>28561.83935289578</v>
       </c>
       <c r="M4" t="n">
-        <v>28561.83935289579</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="N4" t="n">
+        <v>28561.83935289575</v>
+      </c>
+      <c r="O4" t="n">
+        <v>28561.83935289578</v>
+      </c>
+      <c r="P4" t="n">
         <v>28561.83935289577</v>
-      </c>
-      <c r="O4" t="n">
-        <v>22188.28974321247</v>
-      </c>
-      <c r="P4" t="n">
-        <v>22188.28974321247</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>76261.10613140123</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,13 +26478,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>90281.88698203937</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>90281.88698203937</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371364</v>
@@ -26491,7 +26493,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371364</v>
@@ -26503,13 +26505,13 @@
         <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="O5" t="n">
         <v>96383.51825371364</v>
       </c>
-      <c r="O5" t="n">
-        <v>90281.88698203937</v>
-      </c>
       <c r="P5" t="n">
-        <v>90281.88698203937</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-308020.1338359888</v>
+        <v>-230628.5108130962</v>
       </c>
       <c r="C6" t="n">
+        <v>190155.1058040869</v>
+      </c>
+      <c r="D6" t="n">
         <v>281947.745378556</v>
       </c>
-      <c r="D6" t="n">
-        <v>281947.7453785562</v>
-      </c>
       <c r="E6" t="n">
-        <v>-275669.8120205898</v>
+        <v>-296408.2699582395</v>
       </c>
       <c r="F6" t="n">
-        <v>421743.5746400213</v>
+        <v>430969.144035167</v>
       </c>
       <c r="G6" t="n">
-        <v>403463.130760548</v>
+        <v>430969.1440351674</v>
       </c>
       <c r="H6" t="n">
-        <v>430969.1440351672</v>
+        <v>430969.1440351673</v>
       </c>
       <c r="I6" t="n">
+        <v>430969.1440351668</v>
+      </c>
+      <c r="J6" t="n">
+        <v>276242.608351951</v>
+      </c>
+      <c r="K6" t="n">
+        <v>409627.0454529661</v>
+      </c>
+      <c r="L6" t="n">
         <v>430969.1440351671</v>
       </c>
-      <c r="J6" t="n">
-        <v>254545.9248425741</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
+        <v>301326.8291962221</v>
+      </c>
+      <c r="N6" t="n">
         <v>430969.1440351671</v>
       </c>
-      <c r="L6" t="n">
-        <v>430969.1440351673</v>
-      </c>
-      <c r="M6" t="n">
-        <v>326335.8903709971</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>430969.1440351669</v>
       </c>
-      <c r="O6" t="n">
-        <v>421743.5746400212</v>
-      </c>
       <c r="P6" t="n">
-        <v>421743.5746400211</v>
+        <v>430969.1440351671</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170865</v>
+        <v>306.3599178435495</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>591.3628276712475</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1094.157153110288</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="F4" t="n">
-        <v>1094.157153110288</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="G4" t="n">
         <v>1194.51293060493</v>
@@ -26826,10 +26828,10 @@
         <v>1194.51293060493</v>
       </c>
       <c r="O4" t="n">
-        <v>1094.157153110288</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="P4" t="n">
-        <v>1094.157153110288</v>
+        <v>1194.51293060493</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170865</v>
+        <v>306.3599178435495</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>71.38374637353718</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>591.3628276712475</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>82.92444508330811</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>419.8698803557321</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>100.3557774946426</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>591.3628276712475</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>82.92444508330811</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>419.8698803557321</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>591.3628276712475</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>82.92444508330811</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>419.8698803557321</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>100.3557774946426</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.8617025836455</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>162.9947207958795</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>72.50477145174317</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>180.9550379164569</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>217.7045308089147</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2471250950627</v>
       </c>
       <c r="V2" t="n">
-        <v>218.7821368177286</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>9.471964778551524</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27506,10 +27508,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>159.4432253296168</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>182.306902766559</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27540,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,13 +27551,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>167.4385270475933</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>157.3153692344725</v>
       </c>
       <c r="I4" t="n">
-        <v>125.6900249618416</v>
+        <v>138.8367272514146</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27579,22 +27581,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>39.90169565731841</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>152.4531265631663</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>214.3888609467086</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.5851113727656</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>286.28889559408</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>111.7838228821125</v>
       </c>
     </row>
     <row r="5">
@@ -27619,10 +27621,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>22.53955250278489</v>
+        <v>359.741161487296</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27661,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27676,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,22 +27782,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>136.5352800650336</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27834,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>158.8724992844802</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>39.33357018799757</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>226.968995871239</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,10 +28016,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>71.69266140818955</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
@@ -28053,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>14.65885272800598</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28062,7 +28064,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.23159765967256</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>12.61309953212161</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>47.48116877452641</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727435</v>
+        <v>104.530311867634</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>156.6638408015735</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>194.3553476787777</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>216.2577725589796</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338303</v>
+        <v>219.7570494095242</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>207.5103501811552</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>177.1052829579888</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>132.9986917709653</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633794</v>
+        <v>77.36434648940651</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727381</v>
+        <v>28.06503166978849</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473551</v>
+        <v>5.391318755216634</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.09852781277380478</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.6589628421540499</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188912</v>
+        <v>6.364193765014114</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890688</v>
+        <v>22.68797504784778</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396473</v>
+        <v>62.2575376440368</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649101</v>
+        <v>106.4080480683581</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>143.0787521966502</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983121</v>
+        <v>166.9661552247345</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>171.3852525302325</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923046</v>
+        <v>156.7840232382927</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>125.8330009723817</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>84.11602876338364</v>
       </c>
       <c r="R3" t="n">
-        <v>50.4465972703498</v>
+        <v>40.9134999716348</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>12.23994577422105</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372664</v>
+        <v>2.65608268394549</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.04335281856276646</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.5524523108654171</v>
       </c>
       <c r="H4" t="n">
-        <v>6.05628366564444</v>
+        <v>4.911803272967076</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>16.61374767584364</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813576</v>
+        <v>39.05837837818498</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302236</v>
+        <v>64.18491393509117</v>
       </c>
       <c r="L4" t="n">
-        <v>101.2724571246924</v>
+        <v>82.13459174448211</v>
       </c>
       <c r="M4" t="n">
-        <v>106.7776065917249</v>
+        <v>86.59941087502169</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666594</v>
+        <v>84.54027044361429</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175841</v>
+        <v>78.08662299395917</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383798</v>
+        <v>66.8165958523046</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678006</v>
+        <v>46.26034759437597</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>24.8402648140032</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695335</v>
+        <v>9.627737090263674</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.360478055515872</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.03013376241084097</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32935,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33755,7 +33757,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34457,7 +34459,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O45" t="n">
         <v>557.7086478970249</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>92.58102251302151</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>260.7194023277577</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>376.2501472592409</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>435.4250728245393</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>427.6909102249175</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>358.2123200222138</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>267.6709953742019</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>123.0079925564204</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770687</v>
+        <v>61.51094631777895</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031297</v>
+        <v>233.0318461065777</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>375.3647177202351</v>
       </c>
       <c r="M3" t="n">
-        <v>410.005506727916</v>
+        <v>490.537185052716</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>519.3859147904527</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>408.0500980705779</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>99.46561263076353</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>154.2115424132112</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713951</v>
+        <v>41.91542210920832</v>
       </c>
       <c r="L4" t="n">
-        <v>128.8624823850085</v>
+        <v>109.7246170047982</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535655</v>
+        <v>126.1832878368623</v>
       </c>
       <c r="N4" t="n">
-        <v>148.370846145888</v>
+        <v>128.6724428228429</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>102.6717509079988</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873147</v>
+        <v>64.09515511719809</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279158</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35255,7 +35257,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35267,7 +35269,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35410,25 +35412,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>608.670951684352</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908542</v>
+        <v>627.9163536265537</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>608.670951684352</v>
+        <v>539.1576964255129</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,25 +35886,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427824</v>
+        <v>672.577872718666</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>331.1491914695957</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>324.0400586087388</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427824</v>
+        <v>559.3763608778471</v>
       </c>
       <c r="M20" t="n">
         <v>988.434649323059</v>
@@ -36139,10 +36141,10 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36355,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>559.3763608778471</v>
       </c>
       <c r="M23" t="n">
         <v>988.434649323059</v>
@@ -36370,16 +36372,16 @@
         <v>989.6487598248955</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>420.9083957314513</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282456</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>324.0400586087388</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427824</v>
+        <v>559.3763608778471</v>
       </c>
       <c r="M29" t="n">
         <v>988.434649323059</v>
@@ -36850,10 +36852,10 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>470.4443441954267</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427824</v>
+        <v>615.9231040270865</v>
       </c>
       <c r="M32" t="n">
         <v>988.434649323059</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37303,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427824</v>
+        <v>559.3763608778471</v>
       </c>
       <c r="M35" t="n">
         <v>988.434649323059</v>
@@ -37318,16 +37320,16 @@
         <v>989.6487598248955</v>
       </c>
       <c r="O35" t="n">
-        <v>641.306058528246</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37403,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>794.1893959229037</v>
+        <v>615.9231040270853</v>
       </c>
       <c r="M38" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37713,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554004</v>
@@ -37792,13 +37794,13 @@
         <v>989.6487598248955</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>611.8392473737348</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>338.623826031316</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -38014,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>609.1360554929109</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
         <v>988.434649323059</v>
@@ -38029,16 +38031,16 @@
         <v>989.6487598248955</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>611.8392473737348</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38105,7 +38107,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O45" t="n">
         <v>415.1124034525805</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2032544.961051117</v>
+        <v>2026804.846342901</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6663746.095359933</v>
+        <v>6663746.095359931</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095095</v>
+        <v>806345.8827095103</v>
       </c>
     </row>
     <row r="9">
@@ -664,7 +664,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>414.0711398554625</v>
+        <v>14.07113985546248</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -715,13 +715,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>35.84499360077201</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>339.7690039388615</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.6845543210566</v>
@@ -758,7 +758,7 @@
         <v>105.8712504714823</v>
       </c>
       <c r="I3" t="n">
-        <v>66.70865780356731</v>
+        <v>66.70865780356719</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.24433418100833</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>22.00664380784027</v>
       </c>
       <c r="T3" t="n">
-        <v>15.20174324431709</v>
+        <v>197.5086460108761</v>
       </c>
       <c r="U3" t="n">
         <v>225.8980292624121</v>
@@ -825,13 +825,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>121.3842648627998</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>54.30080173848779</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>106.8008304699822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>22.18920858496576</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>5.791117132838356</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984489</v>
+        <v>196.889762398448</v>
       </c>
       <c r="U6" t="n">
         <v>225.8879277888686</v>
@@ -1059,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>8.885767957897624</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>59.6638564154453</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>394.2018941786167</v>
       </c>
       <c r="H8" t="n">
-        <v>96.95377689311815</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,10 +1302,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.46389722690833</v>
+        <v>25.3159054168623</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>71.67037196991645</v>
       </c>
       <c r="H13" t="n">
-        <v>59.90320919298897</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>147.4291364622107</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1785,7 +1785,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>171.2000551202476</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9951719589019</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>36.38253456427775</v>
       </c>
       <c r="H19" t="n">
-        <v>110.2398088806205</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2058,7 +2058,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.75769145492261</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>6.38006817584717</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>13.02719212039564</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>173.1942117550896</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>107.4701867204015</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>80.50796942908519</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>71.25306209681695</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>128.2808324720647</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3012,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>77.31354443380407</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>147.4820184895069</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3319,10 +3319,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>77.31354443380407</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>78.56505621326029</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>52.23490948285998</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>94.01587853653037</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3796,7 +3796,7 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>118.9444939169143</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>217.0914199928478</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3988,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>410.9217256534534</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>14.20188851094886</v>
       </c>
       <c r="X46" t="n">
-        <v>151.7822816698223</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1245.511124565398</v>
+        <v>1199.736419131745</v>
       </c>
       <c r="C2" t="n">
-        <v>876.5486076249866</v>
+        <v>830.7739021913333</v>
       </c>
       <c r="D2" t="n">
-        <v>876.5486076249866</v>
+        <v>472.5082035845827</v>
       </c>
       <c r="E2" t="n">
-        <v>876.5486076249866</v>
+        <v>472.5082035845827</v>
       </c>
       <c r="F2" t="n">
-        <v>465.5627028353791</v>
+        <v>61.52229879497517</v>
       </c>
       <c r="G2" t="n">
-        <v>47.3090262136998</v>
+        <v>47.30902621369994</v>
       </c>
       <c r="H2" t="n">
-        <v>47.3090262136998</v>
+        <v>47.30902621369994</v>
       </c>
       <c r="I2" t="n">
-        <v>47.3090262136998</v>
+        <v>47.30902621369994</v>
       </c>
       <c r="J2" t="n">
         <v>138.9642385015914</v>
       </c>
       <c r="K2" t="n">
-        <v>397.0764468060713</v>
+        <v>397.0764468060725</v>
       </c>
       <c r="L2" t="n">
-        <v>769.56409259272</v>
+        <v>769.5640925927219</v>
       </c>
       <c r="M2" t="n">
-        <v>1200.634914689014</v>
+        <v>1200.634914689017</v>
       </c>
       <c r="N2" t="n">
-        <v>1624.048915811682</v>
+        <v>1624.048915811686</v>
       </c>
       <c r="O2" t="n">
-        <v>1978.679112633674</v>
+        <v>1978.679112633679</v>
       </c>
       <c r="P2" t="n">
-        <v>2243.673398054134</v>
+        <v>2243.67339805414</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.45131068499</v>
+        <v>2365.451310684997</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.45131068499</v>
+        <v>2365.451310684997</v>
       </c>
       <c r="S2" t="n">
-        <v>2365.45131068499</v>
+        <v>2365.451310684997</v>
       </c>
       <c r="T2" t="n">
-        <v>2365.45131068499</v>
+        <v>2365.451310684997</v>
       </c>
       <c r="U2" t="n">
-        <v>2365.45131068499</v>
+        <v>2329.244246441793</v>
       </c>
       <c r="V2" t="n">
-        <v>2365.45131068499</v>
+        <v>2329.244246441793</v>
       </c>
       <c r="W2" t="n">
-        <v>2022.250296605332</v>
+        <v>1976.475591171678</v>
       </c>
       <c r="X2" t="n">
-        <v>2022.250296605332</v>
+        <v>1976.475591171678</v>
       </c>
       <c r="Y2" t="n">
-        <v>1632.11096462952</v>
+        <v>1586.336259195867</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.8568241913216</v>
+        <v>842.3222662182064</v>
       </c>
       <c r="C3" t="n">
-        <v>814.4037949101946</v>
+        <v>667.8692369370794</v>
       </c>
       <c r="D3" t="n">
-        <v>665.4693852489434</v>
+        <v>518.9348272758282</v>
       </c>
       <c r="E3" t="n">
-        <v>506.2319302434878</v>
+        <v>359.6973722703727</v>
       </c>
       <c r="F3" t="n">
-        <v>359.6973722703728</v>
+        <v>359.6973722703727</v>
       </c>
       <c r="G3" t="n">
         <v>221.6321658854671</v>
@@ -4406,55 +4406,55 @@
         <v>114.6915088435658</v>
       </c>
       <c r="I3" t="n">
-        <v>47.3090262136998</v>
+        <v>47.30902621369994</v>
       </c>
       <c r="J3" t="n">
-        <v>108.204863068301</v>
+        <v>47.30902621369994</v>
       </c>
       <c r="K3" t="n">
-        <v>338.9063907138129</v>
+        <v>278.0105538592125</v>
       </c>
       <c r="L3" t="n">
-        <v>710.5174612568458</v>
+        <v>649.621624402246</v>
       </c>
       <c r="M3" t="n">
-        <v>1196.149274459035</v>
+        <v>1135.253437604436</v>
       </c>
       <c r="N3" t="n">
-        <v>1710.341330101583</v>
+        <v>1649.445493246985</v>
       </c>
       <c r="O3" t="n">
-        <v>2114.310927191455</v>
+        <v>2053.415090336858</v>
       </c>
       <c r="P3" t="n">
-        <v>2212.781883695911</v>
+        <v>2360.633238912867</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.45131068499</v>
+        <v>2365.451310684997</v>
       </c>
       <c r="R3" t="n">
-        <v>2305.608548885992</v>
+        <v>2365.451310684997</v>
       </c>
       <c r="S3" t="n">
-        <v>2305.608548885992</v>
+        <v>2343.222377545764</v>
       </c>
       <c r="T3" t="n">
-        <v>2290.253252679611</v>
+        <v>2143.718694706495</v>
       </c>
       <c r="U3" t="n">
-        <v>2062.073425141821</v>
+        <v>1915.538867168705</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.921316910078</v>
+        <v>1680.386758936963</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.683960181876</v>
+        <v>1426.149402208761</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.832459976343</v>
+        <v>1218.297902003228</v>
       </c>
       <c r="Y3" t="n">
-        <v>1157.07216121139</v>
+        <v>1010.537603238274</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>252.2749603113767</v>
+        <v>614.8390752546218</v>
       </c>
       <c r="C4" t="n">
-        <v>252.2749603113767</v>
+        <v>614.8390752546218</v>
       </c>
       <c r="D4" t="n">
-        <v>102.158320899041</v>
+        <v>464.722435842286</v>
       </c>
       <c r="E4" t="n">
-        <v>102.158320899041</v>
+        <v>316.8093422598929</v>
       </c>
       <c r="F4" t="n">
-        <v>102.158320899041</v>
+        <v>169.9193947619825</v>
       </c>
       <c r="G4" t="n">
-        <v>102.158320899041</v>
+        <v>47.30902621369994</v>
       </c>
       <c r="H4" t="n">
-        <v>102.158320899041</v>
+        <v>47.30902621369994</v>
       </c>
       <c r="I4" t="n">
-        <v>102.158320899041</v>
+        <v>47.30902621369994</v>
       </c>
       <c r="J4" t="n">
-        <v>47.3090262136998</v>
+        <v>47.30902621369994</v>
       </c>
       <c r="K4" t="n">
-        <v>88.80529410181603</v>
+        <v>88.80529410181649</v>
       </c>
       <c r="L4" t="n">
-        <v>197.4326649365663</v>
+        <v>197.4326649365672</v>
       </c>
       <c r="M4" t="n">
-        <v>322.35411989506</v>
+        <v>322.3541198950612</v>
       </c>
       <c r="N4" t="n">
-        <v>449.7398382896744</v>
+        <v>449.7398382896761</v>
       </c>
       <c r="O4" t="n">
-        <v>551.3848716885933</v>
+        <v>551.3848716885954</v>
       </c>
       <c r="P4" t="n">
-        <v>614.8390752546194</v>
+        <v>614.8390752546218</v>
       </c>
       <c r="Q4" t="n">
-        <v>614.8390752546194</v>
+        <v>614.8390752546218</v>
       </c>
       <c r="R4" t="n">
-        <v>614.8390752546194</v>
+        <v>614.8390752546218</v>
       </c>
       <c r="S4" t="n">
-        <v>614.8390752546194</v>
+        <v>614.8390752546218</v>
       </c>
       <c r="T4" t="n">
-        <v>614.8390752546194</v>
+        <v>614.8390752546218</v>
       </c>
       <c r="U4" t="n">
-        <v>614.8390752546194</v>
+        <v>614.8390752546218</v>
       </c>
       <c r="V4" t="n">
-        <v>360.1545870487325</v>
+        <v>614.8390752546218</v>
       </c>
       <c r="W4" t="n">
-        <v>360.1545870487325</v>
+        <v>614.8390752546218</v>
       </c>
       <c r="X4" t="n">
-        <v>360.1545870487325</v>
+        <v>614.8390752546218</v>
       </c>
       <c r="Y4" t="n">
-        <v>252.2749603113767</v>
+        <v>614.8390752546218</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1744.232431292459</v>
+        <v>2001.758776122685</v>
       </c>
       <c r="C5" t="n">
-        <v>1744.232431292459</v>
+        <v>1632.796259182273</v>
       </c>
       <c r="D5" t="n">
-        <v>1385.966732685709</v>
+        <v>1274.530560575523</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>888.7423079772784</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>477.7564031876709</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>59.79259508585773</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332393</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>2520.971603332393</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X5" t="n">
-        <v>2520.971603332393</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="Y5" t="n">
-        <v>2130.832271356581</v>
+        <v>2388.358616186807</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4676,13 +4676,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>550.5654064942404</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E7" t="n">
-        <v>402.6523129118473</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F7" t="n">
-        <v>393.6767897220517</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2247.308246834948</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C8" t="n">
-        <v>1878.345729894537</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="D8" t="n">
-        <v>1520.080031287786</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="E8" t="n">
-        <v>1134.291778689542</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="F8" t="n">
-        <v>723.3058738999346</v>
+        <v>452.1267133139167</v>
       </c>
       <c r="G8" t="n">
-        <v>305.3420657981214</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834948</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2247.308246834948</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>2247.308246834948</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>2247.308246834948</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4886,7 +4886,7 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
         <v>670.8219208598708</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>713.5189870075369</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C10" t="n">
-        <v>713.5189870075369</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>563.4023475952011</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>713.5189870075369</v>
+        <v>702.55736257324</v>
       </c>
       <c r="R10" t="n">
-        <v>713.5189870075369</v>
+        <v>702.55736257324</v>
       </c>
       <c r="S10" t="n">
-        <v>713.5189870075369</v>
+        <v>702.55736257324</v>
       </c>
       <c r="T10" t="n">
-        <v>713.5189870075369</v>
+        <v>702.55736257324</v>
       </c>
       <c r="U10" t="n">
-        <v>713.5189870075369</v>
+        <v>702.55736257324</v>
       </c>
       <c r="V10" t="n">
-        <v>713.5189870075369</v>
+        <v>702.55736257324</v>
       </c>
       <c r="W10" t="n">
-        <v>713.5189870075369</v>
+        <v>702.55736257324</v>
       </c>
       <c r="X10" t="n">
-        <v>713.5189870075369</v>
+        <v>702.55736257324</v>
       </c>
       <c r="Y10" t="n">
-        <v>713.5189870075369</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="11">
@@ -5020,16 +5020,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5041,25 +5041,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N11" t="n">
-        <v>3070.887536710053</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O11" t="n">
-        <v>3573.86000758939</v>
+        <v>3944.053400686432</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4338.82776704361</v>
       </c>
       <c r="Q11" t="n">
         <v>4653.975400188666</v>
@@ -5068,19 +5068,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468565</v>
@@ -5120,40 +5120,40 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
         <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>492.7083461157126</v>
+        <v>781.8112129900683</v>
       </c>
       <c r="C13" t="n">
-        <v>323.7721631878057</v>
+        <v>612.8750300621614</v>
       </c>
       <c r="D13" t="n">
-        <v>323.7721631878057</v>
+        <v>462.7583906498256</v>
       </c>
       <c r="E13" t="n">
-        <v>323.7721631878057</v>
+        <v>314.8452970674325</v>
       </c>
       <c r="F13" t="n">
-        <v>323.7721631878057</v>
+        <v>167.9553495695222</v>
       </c>
       <c r="G13" t="n">
-        <v>156.0693265625247</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5202,7 +5202,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5214,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U13" t="n">
-        <v>1667.240599230347</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="V13" t="n">
-        <v>1412.556111024461</v>
+        <v>1701.658977898816</v>
       </c>
       <c r="W13" t="n">
-        <v>1123.1389409875</v>
+        <v>1412.241807861855</v>
       </c>
       <c r="X13" t="n">
-        <v>895.1493900894825</v>
+        <v>1184.252256963838</v>
       </c>
       <c r="Y13" t="n">
-        <v>674.3568109459524</v>
+        <v>963.459677820308</v>
       </c>
     </row>
     <row r="14">
@@ -5257,49 +5257,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K14" t="n">
-        <v>818.2062848686776</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L14" t="n">
-        <v>1682.725100522032</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2216.257005193957</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N14" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3517.878731871642</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4231.233819318588</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4689.712021827576</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5317,7 +5317,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
@@ -5360,7 +5360,7 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
         <v>794.200663232024</v>
@@ -5378,19 +5378,19 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1100.64473518891</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C16" t="n">
         <v>951.7264155301116</v>
@@ -5439,7 +5439,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S16" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T16" t="n">
-        <v>1644.746393431758</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="U16" t="n">
-        <v>1644.746393431758</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="V16" t="n">
-        <v>1390.061905225871</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="W16" t="n">
-        <v>1100.64473518891</v>
+        <v>1475.240411894569</v>
       </c>
       <c r="X16" t="n">
-        <v>1100.64473518891</v>
+        <v>1475.240411894569</v>
       </c>
       <c r="Y16" t="n">
-        <v>1100.64473518891</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="17">
@@ -5494,16 +5494,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
@@ -5515,22 +5515,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L17" t="n">
-        <v>1772.421240554552</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2750.97154338438</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N17" t="n">
-        <v>3297.750360443163</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O17" t="n">
-        <v>3800.7228313225</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
         <v>4195.497197679678</v>
@@ -5548,13 +5548,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5585,7 +5585,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5594,28 +5594,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>619.8559841413803</v>
+        <v>278.5282561439485</v>
       </c>
       <c r="C19" t="n">
-        <v>619.8559841413803</v>
+        <v>278.5282561439485</v>
       </c>
       <c r="D19" t="n">
-        <v>619.8559841413803</v>
+        <v>278.5282561439485</v>
       </c>
       <c r="E19" t="n">
-        <v>471.9428905589872</v>
+        <v>278.5282561439485</v>
       </c>
       <c r="F19" t="n">
-        <v>471.9428905589872</v>
+        <v>278.5282561439485</v>
       </c>
       <c r="G19" t="n">
-        <v>304.2400539337061</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5676,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384228</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783409</v>
+        <v>1198.376021052696</v>
       </c>
       <c r="W19" t="n">
-        <v>619.8559841413803</v>
+        <v>908.9588510157357</v>
       </c>
       <c r="X19" t="n">
-        <v>619.8559841413803</v>
+        <v>680.9693001177184</v>
       </c>
       <c r="Y19" t="n">
-        <v>619.8559841413803</v>
+        <v>460.1767209741882</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
@@ -5752,28 +5752,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>785.6651881176192</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1339.447785386688</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2317.998088216516</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N20" t="n">
-        <v>3297.750360443163</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O20" t="n">
-        <v>3800.7228313225</v>
+        <v>3944.053400686432</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5852,7 +5852,7 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2917.269290763413</v>
+        <v>270.9417306852379</v>
       </c>
       <c r="C22" t="n">
-        <v>2917.269290763413</v>
+        <v>102.005547757331</v>
       </c>
       <c r="D22" t="n">
-        <v>2917.269290763413</v>
+        <v>102.005547757331</v>
       </c>
       <c r="E22" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>4496.535381004075</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T22" t="n">
-        <v>4274.768765573601</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U22" t="n">
-        <v>3985.665898699244</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V22" t="n">
-        <v>3730.981410493358</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W22" t="n">
-        <v>3441.564240456397</v>
+        <v>901.3723255570251</v>
       </c>
       <c r="X22" t="n">
-        <v>3213.57468955838</v>
+        <v>673.3827746590077</v>
       </c>
       <c r="Y22" t="n">
-        <v>2992.78211041485</v>
+        <v>452.5901955154776</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>785.6651881176192</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1339.447785386688</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2317.998088216516</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N23" t="n">
-        <v>3297.750360443163</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O23" t="n">
-        <v>3800.7228313225</v>
+        <v>3944.053400686432</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4338.82776704361</v>
       </c>
       <c r="Q23" t="n">
         <v>4653.975400188666</v>
@@ -6022,19 +6022,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6071,25 +6071,25 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1023.336921276364</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C25" t="n">
-        <v>854.4007383484569</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D25" t="n">
-        <v>704.2840989361212</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E25" t="n">
-        <v>556.371005353728</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F25" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T25" t="n">
-        <v>1956.343466104703</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U25" t="n">
-        <v>1956.343466104703</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V25" t="n">
-        <v>1943.184686185112</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W25" t="n">
-        <v>1653.767516148151</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X25" t="n">
-        <v>1425.777965250134</v>
+        <v>444.9123359039152</v>
       </c>
       <c r="Y25" t="n">
-        <v>1204.985386106604</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G26" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.328657580449</v>
+        <v>2536.153662641309</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807095</v>
+        <v>3082.932479700092</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750059</v>
+        <v>3585.904950579429</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4299.260038026375</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390117</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>411.3871648742117</v>
+        <v>815.0433889280855</v>
       </c>
       <c r="C28" t="n">
-        <v>242.4509819463048</v>
+        <v>706.4876447660638</v>
       </c>
       <c r="D28" t="n">
-        <v>242.4509819463048</v>
+        <v>556.371005353728</v>
       </c>
       <c r="E28" t="n">
-        <v>242.4509819463048</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1875.022284863203</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S28" t="n">
-        <v>1875.022284863203</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T28" t="n">
-        <v>1875.022284863203</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U28" t="n">
-        <v>1585.919417988847</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V28" t="n">
-        <v>1331.23492978296</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="W28" t="n">
-        <v>1041.817759745999</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="X28" t="n">
-        <v>813.8282088479815</v>
+        <v>1217.484432901855</v>
       </c>
       <c r="Y28" t="n">
-        <v>593.0356297044514</v>
+        <v>996.6918537583252</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>785.6651881176192</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1339.447785386688</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2317.998088216516</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>3297.750360443163</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
-        <v>3800.7228313225</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
@@ -6545,25 +6545,25 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6572,7 +6572,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U30" t="n">
         <v>2043.809373447819</v>
@@ -6581,7 +6581,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X30" t="n">
         <v>1346.568408282342</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>728.5987256350443</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C31" t="n">
-        <v>559.6625427071374</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D31" t="n">
-        <v>559.6625427071374</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E31" t="n">
-        <v>411.7494491247443</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F31" t="n">
-        <v>264.8595016268339</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6624,7 +6624,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1674.827124689057</v>
+        <v>1545.250526232427</v>
       </c>
       <c r="U31" t="n">
-        <v>1385.724257814701</v>
+        <v>1256.147659358071</v>
       </c>
       <c r="V31" t="n">
-        <v>1131.039769608814</v>
+        <v>1001.463171152184</v>
       </c>
       <c r="W31" t="n">
-        <v>1131.039769608814</v>
+        <v>712.0460011152229</v>
       </c>
       <c r="X31" t="n">
-        <v>1131.039769608814</v>
+        <v>484.0564502172056</v>
       </c>
       <c r="Y31" t="n">
-        <v>910.247190465284</v>
+        <v>263.2638710736754</v>
       </c>
     </row>
     <row r="32">
@@ -6700,25 +6700,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>785.6651881176192</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L32" t="n">
-        <v>1395.429061104435</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M32" t="n">
-        <v>2373.979363934263</v>
+        <v>2337.214217867998</v>
       </c>
       <c r="N32" t="n">
-        <v>2920.758180993045</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O32" t="n">
-        <v>3800.7228313225</v>
+        <v>4010.914672075806</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q32" t="n">
         <v>4653.975400188666</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3314.41660243073</v>
+        <v>411.3871648742117</v>
       </c>
       <c r="C34" t="n">
-        <v>3145.480419502823</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D34" t="n">
-        <v>2995.363780090488</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E34" t="n">
-        <v>2917.269290763413</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F34" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T34" t="n">
-        <v>4778.051722419721</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U34" t="n">
-        <v>4488.948855545364</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V34" t="n">
-        <v>4234.264367339478</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W34" t="n">
-        <v>3944.847197302517</v>
+        <v>1041.817759745999</v>
       </c>
       <c r="X34" t="n">
-        <v>3716.8576464045</v>
+        <v>813.8282088479815</v>
       </c>
       <c r="Y34" t="n">
-        <v>3496.06506726097</v>
+        <v>593.0356297044514</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
@@ -6940,19 +6940,19 @@
         <v>451.8458144277728</v>
       </c>
       <c r="K35" t="n">
-        <v>785.6651881176192</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L35" t="n">
-        <v>1339.447785386688</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2317.998088216516</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N35" t="n">
-        <v>3297.750360443163</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O35" t="n">
-        <v>3800.7228313225</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
         <v>4195.497197679678</v>
@@ -6970,19 +6970,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>414.6138567886371</v>
+        <v>578.4172407837245</v>
       </c>
       <c r="C37" t="n">
-        <v>245.6776738607302</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H37" t="n">
         <v>95.56103444839442</v>
@@ -7122,25 +7122,25 @@
         <v>1956.343466104703</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T37" t="n">
-        <v>1878.248976777628</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>1589.146109903272</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V37" t="n">
-        <v>1334.461621697385</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W37" t="n">
-        <v>1045.044451660424</v>
+        <v>1208.847835655512</v>
       </c>
       <c r="X37" t="n">
-        <v>817.0549007624069</v>
+        <v>980.8582847574944</v>
       </c>
       <c r="Y37" t="n">
-        <v>596.2623216188767</v>
+        <v>760.0657056139643</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
@@ -7174,22 +7174,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K38" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L38" t="n">
-        <v>1395.429061104434</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2373.979363934262</v>
+        <v>2536.153662641309</v>
       </c>
       <c r="N38" t="n">
-        <v>2920.758180993045</v>
+        <v>3082.932479700092</v>
       </c>
       <c r="O38" t="n">
-        <v>3800.7228313225</v>
+        <v>3585.904950579429</v>
       </c>
       <c r="P38" t="n">
         <v>4195.497197679678</v>
@@ -7201,19 +7201,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7229,34 +7229,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089891</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L39" t="n">
         <v>794.200663232024</v>
@@ -7265,16 +7265,16 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>391.866433243363</v>
+        <v>578.4172407837245</v>
       </c>
       <c r="C40" t="n">
-        <v>391.866433243363</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D40" t="n">
-        <v>391.866433243363</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E40" t="n">
-        <v>391.866433243363</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F40" t="n">
-        <v>391.866433243363</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G40" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7335,7 +7335,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7347,37 +7347,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P40" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258584</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U40" t="n">
-        <v>1163.957642384228</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V40" t="n">
-        <v>909.2731541783409</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W40" t="n">
-        <v>619.8559841413803</v>
+        <v>901.3723255570251</v>
       </c>
       <c r="X40" t="n">
-        <v>391.866433243363</v>
+        <v>673.3827746590077</v>
       </c>
       <c r="Y40" t="n">
-        <v>391.866433243363</v>
+        <v>578.4172407837245</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551621</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
         <v>435.1415336001585</v>
@@ -7423,10 +7423,10 @@
         <v>2215.249704195856</v>
       </c>
       <c r="N41" t="n">
-        <v>3195.001976422503</v>
+        <v>2762.028521254639</v>
       </c>
       <c r="O41" t="n">
-        <v>3800.7228313225</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
         <v>4195.497197679678</v>
@@ -7444,19 +7444,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7505,13 +7505,13 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>825.859557377715</v>
+        <v>562.5269503710301</v>
       </c>
       <c r="C43" t="n">
-        <v>656.9233744498081</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D43" t="n">
-        <v>506.8067350374723</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E43" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S43" t="n">
-        <v>1746.367055410803</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T43" t="n">
-        <v>1524.600439980329</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U43" t="n">
-        <v>1235.497573105972</v>
+        <v>1737.059203485665</v>
       </c>
       <c r="V43" t="n">
-        <v>1235.497573105972</v>
+        <v>1482.374715279778</v>
       </c>
       <c r="W43" t="n">
-        <v>1235.497573105972</v>
+        <v>1192.957545242817</v>
       </c>
       <c r="X43" t="n">
-        <v>1007.508022207955</v>
+        <v>964.9679943448</v>
       </c>
       <c r="Y43" t="n">
-        <v>1007.508022207955</v>
+        <v>744.1754152012699</v>
       </c>
     </row>
     <row r="44">
@@ -7630,46 +7630,46 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>785.6651881176192</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1236.699401366028</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2215.249704195856</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N44" t="n">
-        <v>3195.001976422503</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O44" t="n">
-        <v>3800.7228313225</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7739,7 +7739,7 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>556.371005353728</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C46" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D46" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E46" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F46" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
         <v>95.56103444839442</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S46" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T46" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U46" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V46" t="n">
-        <v>999.1036114208122</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W46" t="n">
-        <v>709.6864413838516</v>
+        <v>894.9278122480886</v>
       </c>
       <c r="X46" t="n">
-        <v>556.371005353728</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y46" t="n">
-        <v>556.371005353728</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>64.58008902262958</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>107.6070190727121</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>60.73248448640489</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451752</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8534,10 +8534,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8689,16 +8689,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8707,10 +8707,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>229.1543674071818</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>67.53663776704403</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>201.9664098701124</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>29.61882225792191</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9169,19 +9169,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>216.9877583263338</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>103.7862464855152</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9418,13 +9418,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>133.2530576400267</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>103.7862464855152</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>67.53663776704403</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>133.253057640027</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>173.2204606877403</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>103.7862464855152</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10126,16 +10126,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>160.3329896347546</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>249.4515018379506</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10369,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10588,22 +10588,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>103.7862464855152</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10825,10 +10825,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>160.3329896347531</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10837,10 +10837,10 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>216.9877583263345</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11071,13 +11071,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>103.7862464855158</v>
+        <v>219.3344627260169</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11311,16 +11311,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>103.7862464855158</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>94.35543628911178</v>
       </c>
       <c r="H13" t="n">
-        <v>84.8518057213318</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -23472,7 +23472,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>19.81768463641708</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>47.38459823184724</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>129.6432736947505</v>
       </c>
       <c r="H19" t="n">
-        <v>34.5152060337003</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.0742887270147</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>140.053894470722</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983812</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>239.1104512034324</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>52.51544363394757</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>59.77663437822635</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983812</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>8.424183240962151</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>94.77274616221128</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>91.26811680410449</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>69.1204182127651</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -25128,7 +25128,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>139.0409798470841</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983812</v>
@@ -25362,19 +25362,19 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>142.2354048423651</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>207.9579421233307</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>113.7908987761682</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>124.5687748155644</v>
       </c>
     </row>
     <row r="41">
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>70.82453141452763</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>69.12041821276512</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,13 +26034,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983812</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.3211098256421</v>
       </c>
       <c r="X46" t="n">
-        <v>73.92737371921481</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>932181.8936380162</v>
+        <v>932181.8936380163</v>
       </c>
     </row>
     <row r="3">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>861640.6778858805</v>
+        <v>861640.6778858806</v>
       </c>
     </row>
     <row r="11">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="C2" t="n">
+        <v>574729.2389049988</v>
+      </c>
+      <c r="D2" t="n">
         <v>574729.238904999</v>
       </c>
-      <c r="D2" t="n">
-        <v>574729.2389049988</v>
-      </c>
       <c r="E2" t="n">
+        <v>555914.5016417762</v>
+      </c>
+      <c r="F2" t="n">
         <v>555914.5016417766</v>
       </c>
-      <c r="F2" t="n">
-        <v>555914.5016417764</v>
-      </c>
       <c r="G2" t="n">
-        <v>555914.5016417768</v>
+        <v>555914.5016417766</v>
       </c>
       <c r="H2" t="n">
         <v>555914.5016417765</v>
       </c>
       <c r="I2" t="n">
-        <v>555914.5016417762</v>
+        <v>555914.5016417765</v>
       </c>
       <c r="J2" t="n">
         <v>555914.5016417763</v>
@@ -26343,19 +26343,19 @@
         <v>555914.5016417763</v>
       </c>
       <c r="L2" t="n">
-        <v>555914.5016417764</v>
+        <v>555914.5016417765</v>
       </c>
       <c r="M2" t="n">
         <v>555914.5016417763</v>
       </c>
       <c r="N2" t="n">
+        <v>555914.5016417763</v>
+      </c>
+      <c r="O2" t="n">
+        <v>555914.5016417764</v>
+      </c>
+      <c r="P2" t="n">
         <v>555914.5016417765</v>
-      </c>
-      <c r="O2" t="n">
-        <v>555914.5016417763</v>
-      </c>
-      <c r="P2" t="n">
-        <v>555914.5016417764</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493391.6844106477</v>
+        <v>493391.6844106498</v>
       </c>
       <c r="C3" t="n">
-        <v>91792.63957446939</v>
+        <v>91792.63957446726</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154726.5356832159</v>
+        <v>154726.5356832164</v>
       </c>
       <c r="K3" t="n">
-        <v>21342.09858220084</v>
+        <v>21342.09858220029</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235704.9591760457</v>
+        <v>235704.9591760452</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26426,13 +26426,13 @@
         <v>209922.4154630333</v>
       </c>
       <c r="E4" t="n">
-        <v>28561.83935289574</v>
+        <v>28561.83935289578</v>
       </c>
       <c r="F4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289577</v>
       </c>
       <c r="G4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289578</v>
       </c>
       <c r="H4" t="n">
         <v>28561.83935289577</v>
@@ -26444,22 +26444,22 @@
         <v>28561.83935289579</v>
       </c>
       <c r="K4" t="n">
-        <v>28561.83935289577</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="L4" t="n">
         <v>28561.83935289578</v>
       </c>
       <c r="M4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.83935289577</v>
       </c>
       <c r="N4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289572</v>
       </c>
       <c r="O4" t="n">
-        <v>28561.83935289578</v>
+        <v>28561.83935289577</v>
       </c>
       <c r="P4" t="n">
-        <v>28561.83935289577</v>
+        <v>28561.83935289579</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76261.10613140123</v>
+        <v>76261.10613140135</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,13 +26478,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371364</v>
@@ -26493,10 +26493,10 @@
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371364</v>
@@ -26505,7 +26505,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
         <v>96383.51825371364</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-230628.5108130962</v>
+        <v>-230628.5108130981</v>
       </c>
       <c r="C6" t="n">
-        <v>190155.1058040869</v>
+        <v>190155.1058040887</v>
       </c>
       <c r="D6" t="n">
-        <v>281947.745378556</v>
+        <v>281947.7453785562</v>
       </c>
       <c r="E6" t="n">
-        <v>-296408.2699582395</v>
+        <v>-297080.2248604979</v>
       </c>
       <c r="F6" t="n">
-        <v>430969.144035167</v>
+        <v>430297.1891329093</v>
       </c>
       <c r="G6" t="n">
-        <v>430969.1440351674</v>
+        <v>430297.1891329093</v>
       </c>
       <c r="H6" t="n">
-        <v>430969.1440351673</v>
+        <v>430297.1891329092</v>
       </c>
       <c r="I6" t="n">
-        <v>430969.1440351668</v>
+        <v>430297.1891329092</v>
       </c>
       <c r="J6" t="n">
-        <v>276242.608351951</v>
+        <v>275570.6534496925</v>
       </c>
       <c r="K6" t="n">
-        <v>409627.0454529661</v>
+        <v>408955.0905507087</v>
       </c>
       <c r="L6" t="n">
-        <v>430969.1440351671</v>
+        <v>430297.1891329092</v>
       </c>
       <c r="M6" t="n">
-        <v>301326.8291962221</v>
+        <v>300654.8742939642</v>
       </c>
       <c r="N6" t="n">
-        <v>430969.1440351671</v>
+        <v>430297.189132909</v>
       </c>
       <c r="O6" t="n">
-        <v>430969.1440351669</v>
+        <v>430297.1891329091</v>
       </c>
       <c r="P6" t="n">
-        <v>430969.1440351671</v>
+        <v>430297.1891329092</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435495</v>
+        <v>306.359917843551</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712475</v>
+        <v>591.3628276712492</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435495</v>
+        <v>306.359917843551</v>
       </c>
       <c r="C3" t="n">
-        <v>71.38374637353718</v>
+        <v>71.38374637353553</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762115</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712475</v>
+        <v>591.3628276712492</v>
       </c>
       <c r="C4" t="n">
-        <v>82.92444508330811</v>
+        <v>82.92444508330622</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712475</v>
+        <v>591.3628276712494</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330811</v>
+        <v>82.92444508330595</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712475</v>
+        <v>591.3628276712492</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330811</v>
+        <v>82.92444508330622</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>326.8617025836455</v>
       </c>
       <c r="I2" t="n">
-        <v>162.9947207958795</v>
+        <v>162.9947207958793</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,22 +27426,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>72.50477145174317</v>
+        <v>72.50477145174278</v>
       </c>
       <c r="S2" t="n">
-        <v>180.9550379164569</v>
+        <v>180.9550379164567</v>
       </c>
       <c r="T2" t="n">
         <v>217.7045308089147</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2471250950627</v>
+        <v>215.4021314942907</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>9.471964778551524</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27469,7 +27469,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.24433418100813</v>
       </c>
       <c r="S3" t="n">
-        <v>159.4432253296168</v>
+        <v>137.4365815217764</v>
       </c>
       <c r="T3" t="n">
-        <v>182.306902766559</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27545,13 +27545,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4385270475933</v>
+        <v>46.05426218479357</v>
       </c>
       <c r="H4" t="n">
         <v>157.3153692344725</v>
@@ -27560,7 +27560,7 @@
         <v>138.8367272514146</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>54.30080173848759</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.90169565731841</v>
+        <v>39.90169565731818</v>
       </c>
       <c r="R4" t="n">
-        <v>152.4531265631663</v>
+        <v>152.4531265631662</v>
       </c>
       <c r="S4" t="n">
-        <v>214.3888609467086</v>
+        <v>214.3888609467085</v>
       </c>
       <c r="T4" t="n">
         <v>225.5851113727656</v>
@@ -27596,7 +27596,7 @@
         <v>286.28889559408</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>111.7838228821125</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>359.741161487296</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>318.1316556315188</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27748,7 +27748,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27779,25 +27779,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>136.5352800650336</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>96.50703242634985</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>19.58227584217826</v>
       </c>
       <c r="H8" t="n">
-        <v>226.968995871239</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,19 +28022,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.65885272800598</v>
+        <v>3.806844538052015</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.23159765967256</v>
+        <v>1.231597659672566</v>
       </c>
       <c r="H2" t="n">
-        <v>12.61309953212161</v>
+        <v>12.61309953212167</v>
       </c>
       <c r="I2" t="n">
-        <v>47.48116877452641</v>
+        <v>47.48116877452665</v>
       </c>
       <c r="J2" t="n">
-        <v>104.530311867634</v>
+        <v>104.5303118676346</v>
       </c>
       <c r="K2" t="n">
-        <v>156.6638408015735</v>
+        <v>156.6638408015743</v>
       </c>
       <c r="L2" t="n">
-        <v>194.3553476787777</v>
+        <v>194.3553476787786</v>
       </c>
       <c r="M2" t="n">
-        <v>216.2577725589796</v>
+        <v>216.2577725589806</v>
       </c>
       <c r="N2" t="n">
-        <v>219.7570494095242</v>
+        <v>219.7570494095253</v>
       </c>
       <c r="O2" t="n">
-        <v>207.5103501811552</v>
+        <v>207.5103501811562</v>
       </c>
       <c r="P2" t="n">
-        <v>177.1052829579888</v>
+        <v>177.1052829579897</v>
       </c>
       <c r="Q2" t="n">
-        <v>132.9986917709653</v>
+        <v>132.9986917709659</v>
       </c>
       <c r="R2" t="n">
-        <v>77.36434648940651</v>
+        <v>77.3643464894069</v>
       </c>
       <c r="S2" t="n">
-        <v>28.06503166978849</v>
+        <v>28.06503166978863</v>
       </c>
       <c r="T2" t="n">
-        <v>5.391318755216634</v>
+        <v>5.391318755216661</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09852781277380478</v>
+        <v>0.09852781277380526</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6589628421540499</v>
+        <v>0.6589628421540532</v>
       </c>
       <c r="H3" t="n">
-        <v>6.364193765014114</v>
+        <v>6.364193765014146</v>
       </c>
       <c r="I3" t="n">
-        <v>22.68797504784778</v>
+        <v>22.68797504784789</v>
       </c>
       <c r="J3" t="n">
-        <v>62.2575376440368</v>
+        <v>62.25753764403711</v>
       </c>
       <c r="K3" t="n">
-        <v>106.4080480683581</v>
+        <v>106.4080480683587</v>
       </c>
       <c r="L3" t="n">
-        <v>143.0787521966502</v>
+        <v>143.0787521966509</v>
       </c>
       <c r="M3" t="n">
-        <v>166.9661552247345</v>
+        <v>166.9661552247353</v>
       </c>
       <c r="N3" t="n">
-        <v>171.3852525302325</v>
+        <v>171.3852525302333</v>
       </c>
       <c r="O3" t="n">
-        <v>156.7840232382927</v>
+        <v>156.7840232382935</v>
       </c>
       <c r="P3" t="n">
-        <v>125.8330009723817</v>
+        <v>125.8330009723823</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.11602876338364</v>
+        <v>84.11602876338407</v>
       </c>
       <c r="R3" t="n">
-        <v>40.9134999716348</v>
+        <v>40.91349997163501</v>
       </c>
       <c r="S3" t="n">
-        <v>12.23994577422105</v>
+        <v>12.23994577422111</v>
       </c>
       <c r="T3" t="n">
-        <v>2.65608268394549</v>
+        <v>2.656082683945503</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04335281856276646</v>
+        <v>0.04335281856276667</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5524523108654171</v>
+        <v>0.5524523108654199</v>
       </c>
       <c r="H4" t="n">
-        <v>4.911803272967076</v>
+        <v>4.9118032729671</v>
       </c>
       <c r="I4" t="n">
-        <v>16.61374767584364</v>
+        <v>16.61374767584372</v>
       </c>
       <c r="J4" t="n">
-        <v>39.05837837818498</v>
+        <v>39.05837837818518</v>
       </c>
       <c r="K4" t="n">
-        <v>64.18491393509117</v>
+        <v>64.18491393509149</v>
       </c>
       <c r="L4" t="n">
-        <v>82.13459174448211</v>
+        <v>82.13459174448252</v>
       </c>
       <c r="M4" t="n">
-        <v>86.59941087502169</v>
+        <v>86.59941087502212</v>
       </c>
       <c r="N4" t="n">
-        <v>84.54027044361429</v>
+        <v>84.54027044361472</v>
       </c>
       <c r="O4" t="n">
-        <v>78.08662299395917</v>
+        <v>78.08662299395955</v>
       </c>
       <c r="P4" t="n">
-        <v>66.8165958523046</v>
+        <v>66.81659585230493</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.26034759437597</v>
+        <v>46.26034759437621</v>
       </c>
       <c r="R4" t="n">
-        <v>24.8402648140032</v>
+        <v>24.84026481400333</v>
       </c>
       <c r="S4" t="n">
-        <v>9.627737090263674</v>
+        <v>9.627737090263723</v>
       </c>
       <c r="T4" t="n">
-        <v>2.360478055515872</v>
+        <v>2.360478055515884</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03013376241084097</v>
+        <v>0.03013376241084112</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32791,7 +32791,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138795</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34225,7 +34225,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P42" t="n">
         <v>447.6103584002926</v>
@@ -34459,10 +34459,10 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P45" t="n">
         <v>447.6103584002926</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.58102251302151</v>
+        <v>92.58102251302203</v>
       </c>
       <c r="K2" t="n">
-        <v>260.7194023277577</v>
+        <v>260.7194023277585</v>
       </c>
       <c r="L2" t="n">
-        <v>376.2501472592409</v>
+        <v>376.2501472592418</v>
       </c>
       <c r="M2" t="n">
-        <v>435.4250728245393</v>
+        <v>435.4250728245404</v>
       </c>
       <c r="N2" t="n">
-        <v>427.6909102249175</v>
+        <v>427.6909102249186</v>
       </c>
       <c r="O2" t="n">
-        <v>358.2123200222138</v>
+        <v>358.2123200222148</v>
       </c>
       <c r="P2" t="n">
-        <v>267.6709953742019</v>
+        <v>267.6709953742028</v>
       </c>
       <c r="Q2" t="n">
-        <v>123.0079925564204</v>
+        <v>123.0079925564211</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>61.51094631777895</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>233.0318461065777</v>
+        <v>233.0318461065783</v>
       </c>
       <c r="L3" t="n">
-        <v>375.3647177202351</v>
+        <v>375.3647177202359</v>
       </c>
       <c r="M3" t="n">
-        <v>490.537185052716</v>
+        <v>490.5371850527169</v>
       </c>
       <c r="N3" t="n">
-        <v>519.3859147904527</v>
+        <v>519.3859147904536</v>
       </c>
       <c r="O3" t="n">
-        <v>408.0500980705779</v>
+        <v>408.0500980705786</v>
       </c>
       <c r="P3" t="n">
-        <v>99.46561263076353</v>
+        <v>310.3213621979892</v>
       </c>
       <c r="Q3" t="n">
-        <v>154.2115424132112</v>
+        <v>4.866739163767444</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.91542210920832</v>
+        <v>41.91542210920863</v>
       </c>
       <c r="L4" t="n">
-        <v>109.7246170047982</v>
+        <v>109.7246170047987</v>
       </c>
       <c r="M4" t="n">
-        <v>126.1832878368623</v>
+        <v>126.1832878368627</v>
       </c>
       <c r="N4" t="n">
-        <v>128.6724428228429</v>
+        <v>128.6724428228433</v>
       </c>
       <c r="O4" t="n">
-        <v>102.6717509079988</v>
+        <v>102.6717509079992</v>
       </c>
       <c r="P4" t="n">
-        <v>64.09515511719809</v>
+        <v>64.09515511719842</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35266,7 +35266,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>627.9163536265537</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>318.3309425707635</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>539.1576964255129</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>89.23202080014663</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,25 +35886,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>672.577872718666</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>559.3763608778471</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M20" t="n">
         <v>988.434649323059</v>
@@ -36138,13 +36138,13 @@
         <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>532.0150438593984</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>559.3763608778471</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M23" t="n">
         <v>988.434649323059</v>
@@ -36378,7 +36378,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>318.3309425707635</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36439,7 +36439,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340053</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
         <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>641.306058528246</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>424.0147654914597</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222472</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>559.3763608778471</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
-        <v>615.9231040270865</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M32" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>801.7533372508618</v>
       </c>
       <c r="O32" t="n">
         <v>888.8531821509644</v>
@@ -37089,7 +37089,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37308,22 +37308,22 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L35" t="n">
-        <v>559.3763608778471</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
         <v>463.1092954636241</v>
@@ -37545,25 +37545,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L38" t="n">
-        <v>615.9231040270853</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>615.7497445457061</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37791,13 +37791,13 @@
         <v>988.434649323059</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>611.8392473737348</v>
+        <v>727.3874636142359</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q41" t="n">
         <v>463.1092954636241</v>
@@ -37873,7 +37873,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M44" t="n">
         <v>988.434649323059</v>
@@ -38031,16 +38031,16 @@
         <v>989.6487598248955</v>
       </c>
       <c r="O44" t="n">
-        <v>611.8392473737348</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38107,10 +38107,10 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
